--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3C332-1C28-42BF-982F-7026B9553486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AB7FC-DC68-4E5B-8DE9-0A00F2977B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
-    <sheet name="1-2, main" sheetId="31" r:id="rId2"/>
-    <sheet name="1-2, 1" sheetId="44" r:id="rId3"/>
-    <sheet name="1-2, 2" sheetId="45" r:id="rId4"/>
-    <sheet name="1-2, 3" sheetId="47" r:id="rId5"/>
+    <sheet name="1-2 main-0" sheetId="31" r:id="rId2"/>
+    <sheet name="1-2 main-1" sheetId="48" r:id="rId3"/>
+    <sheet name="1-2, 1" sheetId="44" r:id="rId4"/>
+    <sheet name="1-2, 2" sheetId="45" r:id="rId5"/>
+    <sheet name="1-2, 3" sheetId="47" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1298,7 +1299,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{4DD341ED-4FA1-48C4-B2F0-0947D9F2E52B}">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5D02B116-B3C9-4234-8D54-9ACF46AD8258}">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{DCC16CC6-B31D-4415-9897-1A65EDA0E3C8}">
       <text>
         <r>
           <rPr>
@@ -1639,7 +1640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D18925AD-5203-4015-B6F9-B60815764F45}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1926,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
       <text>
         <r>
           <rPr>
@@ -2130,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
       <text>
         <r>
           <rPr>
@@ -2266,7 +2267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
       <text>
         <r>
           <rPr>
@@ -2552,7 +2553,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
       <text>
         <r>
           <rPr>
@@ -2757,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
       <text>
         <r>
           <rPr>
@@ -2780,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
       <text>
         <r>
           <rPr>
@@ -2893,7 +2894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
       <text>
         <r>
           <rPr>
@@ -3172,8 +3173,635 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>UISU</author>
+    <author>서 의수</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대화
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">종료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Scene </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Default = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>), (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> 사용하고 있는 구분자
+:, ()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">0: 스킵 불가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>1(value) : {$value}배속
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
+v0, v1 (순서 무관)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- 컷씬
+v0, v1, v2, v3 (순서 무관)
+v0 - Hold, None (Default - None)   (대소문자 무관)
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="84">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3262,13 +3890,6 @@
   </si>
   <si>
     <t>아들</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>1-2 main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하지만, 아빠!</t>
@@ -3384,9 +4005,6 @@
     <t>···괜찮아! 내가 모기들을 쫓아낼 방법을 강구해 볼 테니까···!</t>
   </si>
   <si>
-    <t>(컷 씬)&gt; (수록 게임2): ‘숲속에서’ (퍼즐 게임)</t>
-  </si>
-  <si>
     <t>(스테이지 필드) : 사진사가 필드 캐릭터가 카메라&gt; 스탠딩으로 변경된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3480,18 +4098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reset, -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3505,6 +4111,46 @@
   </si>
   <si>
     <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2 main-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2 main-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 2, name=Stage 1/2 Camping/#0 숲 속 밤하늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Stage 1/2 Camping/#2 숲 속 캠핑 카 모기 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1, name=Stage 1/카메라 셔터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/2 Camping/Standing to Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/2 Camping/Standing to Camera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3629,7 +4275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3664,6 +4310,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4072,22 +4721,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -4154,7 +4803,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10">
         <v>6</v>
@@ -4162,13 +4811,13 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10">
         <v>6</v>
@@ -4176,7 +4825,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4184,7 +4833,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -4194,7 +4843,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4202,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -4212,7 +4861,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4220,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -4236,7 +4885,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -4252,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -4268,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -4284,7 +4933,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -4302,13 +4951,13 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3">
         <v>7</v>
@@ -4322,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4332,7 +4981,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4344,13 +4993,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
@@ -4359,423 +5008,59 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="5">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <v>-1</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <v>-1</v>
-      </c>
+      <c r="B22" s="12"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
-        <v>-1</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5">
-        <v>11</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="5">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="8">
-        <v>6</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>4</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="8">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="8">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8">
-        <v>11</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="8">
-        <v>4</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1"/>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1"/>
@@ -4872,6 +5157,541 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4890,7 +5710,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4958,7 +5778,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4967,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4975,7 +5795,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4983,10 +5803,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4995,7 +5815,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5003,7 +5823,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5017,7 +5837,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5046,7 +5866,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5119,7 +5939,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5128,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5136,7 +5956,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5145,7 +5965,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5153,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5167,7 +5987,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5181,7 +6001,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +6012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5211,7 +6031,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5284,7 +6104,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5293,15 +6113,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5310,7 +6130,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5318,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5332,7 +6152,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5343,7 +6163,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AB7FC-DC68-4E5B-8DE9-0A00F2977B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE815058-05DA-4000-B8E8-940A2BBA3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3874,30 +3874,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진사</t>
-  </si>
-  <si>
-    <t>사진사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아들</t>
-  </si>
-  <si>
     <t>하지만, 아빠!</t>
   </si>
   <si>
-    <t>(아들 이름). 그곳에는 아무것도 없었어.</t>
-  </si>
-  <si>
     <t>···.</t>
   </si>
   <si>
@@ -3907,19 +3890,10 @@
     <t>(스테이지 필드) : 페이드아웃, 페이드인 되면서 셔터 효과음이 추가된다.</t>
   </si>
   <si>
-    <t>아내</t>
-  </si>
-  <si>
-    <t>(아내 이름)?!</t>
-  </si>
-  <si>
     <t>···이···! ···!</t>
   </si>
   <si>
     <t>···소란스럽네.</t>
-  </si>
-  <si>
-    <t>···(사진사 이름)! (사진사 이름)!</t>
   </si>
   <si>
     <t>···내가 대체 얼마나 못들은 거지? 빨리 돌아가야 겠어···!</t>
@@ -3999,9 +3973,6 @@
     <t>이게··· 대체 어떻게 된 일이지?</t>
   </si>
   <si>
-    <t>(아내 이름)! (아들 이름)! (강아지 이름)도!</t>
-  </si>
-  <si>
     <t>···괜찮아! 내가 모기들을 쫓아낼 방법을 강구해 볼 테니까···!</t>
   </si>
   <si>
@@ -4012,12 +3983,6 @@
     <t>(출사 관련 물품이 가득하다.)</t>
   </si>
   <si>
-    <t>이런, (아내 이름)이 애들 간식거리 좀 챙겨 달라고 했던 것 같은데, ···까먹어버렸어.</t>
-  </si>
-  <si>
-    <t>(사진사 이름), 무슨 문제라도 있어?</t>
-  </si>
-  <si>
     <t>···아니, 아무것도!</t>
   </si>
   <si>
@@ -4027,13 +3992,7 @@
     <t>아빠, 더 가까이 가도 돼요?</t>
   </si>
   <si>
-    <t>(아들 이름). 위험하니 안돼.</t>
-  </si>
-  <si>
     <t>(아담한 텐트. 셋이서 자기엔 버거울 것 같다.)</t>
-  </si>
-  <si>
-    <t>강아지</t>
   </si>
   <si>
     <t>···멍!</t>
@@ -4077,10 +4036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(아들 이름)···. 분명 여행은 즐거울 거야. 작업도 남아있으니, 조금만 참아 주렴.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 필드) : 사진사가 필드 캐릭터가 스탠딩&gt; 카메라로 변경된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4151,6 +4106,54 @@
   </si>
   <si>
     <t>Hold, -1, name=Stage 1/2 Camping/Standing to Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···아이작! 아이작!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야! 토미! 쿠키도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미. 그곳에는 아무것도 없었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미···. 분명 여행은 즐거울 거야. 작업도 남아있으니, 조금만 참아 주렴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런, 마야가 애들 간식거리 좀 챙겨 달라고 했던 것 같은데, ···까먹어버렸어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이작, 무슨 문제라도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미. 위험하니 안돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4647,7 +4650,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4721,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4736,7 +4739,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -4803,7 +4806,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10">
         <v>6</v>
@@ -4811,13 +4814,13 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10">
         <v>6</v>
@@ -4825,15 +4828,15 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -4843,15 +4846,15 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -4861,15 +4864,15 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -4882,10 +4885,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -4898,10 +4901,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -4914,10 +4917,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -4930,10 +4933,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -4951,13 +4954,13 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3">
         <v>7</v>
@@ -4968,10 +4971,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4981,7 +4984,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4993,13 +4996,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
@@ -5160,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5175,7 +5178,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5241,7 +5244,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -5249,15 +5252,15 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -5267,13 +5270,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5281,15 +5284,15 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -5301,7 +5304,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
         <v>6</v>
@@ -5309,15 +5312,15 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -5335,13 +5338,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -5349,13 +5352,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
@@ -5363,15 +5366,15 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -5382,10 +5385,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -5395,13 +5398,13 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>6</v>
@@ -5409,15 +5412,15 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -5428,10 +5431,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -5441,15 +5444,15 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -5462,10 +5465,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -5476,10 +5479,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -5491,7 +5494,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -5505,7 +5508,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -5517,7 +5520,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -5531,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -5573,13 +5576,13 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
@@ -5587,13 +5590,13 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5">
         <v>7</v>
@@ -5605,7 +5608,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C31" s="8">
         <v>6</v>
@@ -5613,15 +5616,15 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -5632,10 +5635,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -5646,10 +5649,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -5661,7 +5664,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C35" s="8">
         <v>11</v>
@@ -5669,13 +5672,13 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8">
         <v>4</v>
@@ -5696,7 +5699,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" activeCellId="1" sqref="C9 F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5710,7 +5713,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5775,10 +5778,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5787,15 +5790,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5815,15 +5818,15 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5837,7 +5840,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5852,7 +5855,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5866,7 +5869,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5936,10 +5939,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5948,15 +5951,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5965,15 +5968,15 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5984,10 +5987,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6001,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6017,7 +6020,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6031,7 +6034,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6101,10 +6104,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6113,15 +6116,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6130,15 +6133,15 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6163,7 +6166,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE815058-05DA-4000-B8E8-940A2BBA3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C636C-444A-4795-A1F8-14AC22B2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -4724,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5161,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5677,15 +5677,25 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C636C-444A-4795-A1F8-14AC22B2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A42F91-5A61-4E65-BE84-1ED1588A8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4154,6 +4154,14 @@
   </si>
   <si>
     <t>쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5163,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5515,7 +5523,9 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
@@ -5541,7 +5551,9 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5"/>
@@ -5708,7 +5720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A42F91-5A61-4E65-BE84-1ED1588A8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A5075-C177-4F2D-ADE0-AD2E5DC877F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -5171,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5509,7 +5509,9 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
@@ -5523,9 +5525,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
@@ -5537,7 +5537,9 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
@@ -5551,9 +5553,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5"/>
@@ -5720,7 +5720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A5075-C177-4F2D-ADE0-AD2E5DC877F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA6EABE-6FC0-4567-99A5-F4026B90115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -4157,11 +4157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,2,1,0</t>
+    <t>Tendency-다감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,2,0,1</t>
+    <t>Tendency-철저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5171,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5712,7 +5712,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA6EABE-6FC0-4567-99A5-F4026B90115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A88022-433F-4458-ACEF-1141C0381238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -4121,10 +4121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마야! 토미! 쿠키도!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마야?!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4162,6 +4158,10 @@
   </si>
   <si>
     <t>Tendency-철저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야! 토미! 쿠키!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>20</v>
@@ -4862,7 +4862,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -4896,7 +4896,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -5171,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5460,7 +5460,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -5510,7 +5510,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5538,7 +5538,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5650,7 +5650,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -5821,7 +5821,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5832,7 +5832,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -5999,7 +5999,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A88022-433F-4458-ACEF-1141C0381238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3DB11-CA66-4EAD-A1D3-D26E0BDC41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5172,7 +5172,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5689,7 +5689,9 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C36" s="8">
         <v>5</v>
       </c>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Camping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3DB11-CA66-4EAD-A1D3-D26E0BDC41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A26517E-9685-4765-BD66-220D0CCD1A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4163,6 +4163,29 @@
   <si>
     <t>마야! 토미! 쿠키!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/강아지 짖는 소리/Cartoon Game Dog Bark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/사진기 설치/Mountain Audio - TV Remote Batteries Changing - Sound (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/사진기 회수/Mountain Audio - TV Remote Batteries Changing - Sound (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급박한 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/1 SmallRoom/불길한 소리/LDj_Audio - Annoying Horror Screamer (Mp3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
   </si>
 </sst>
 </file>
@@ -5169,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6CFE2B-C0F2-43E0-856F-54ADC42AF2F1}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5264,109 +5287,107 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>63</v>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
@@ -5374,151 +5395,151 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -5530,7 +5551,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -5538,178 +5559,242 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="8">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>48</v>
+      <c r="A37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="8">
+        <v>11</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6042,10 +6127,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6145,34 +6230,28 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6180,17 +6259,31 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
     </row>
